--- a/satistike.xlsx
+++ b/satistike.xlsx
@@ -215,7 +215,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,6 +264,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,11 +296,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -299,12 +310,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="51">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -372,6 +388,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -397,197 +433,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -841,6 +686,272 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -855,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M137" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" headerRowCellStyle="Heading 4">
-  <autoFilter ref="A1:M137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M138" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" headerRowCellStyle="Heading 4">
+  <autoFilter ref="A1:M138">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -872,19 +983,19 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Gjinia " dataDxfId="37"/>
-    <tableColumn id="2" name="Mosha" dataDxfId="8"/>
-    <tableColumn id="3" name="Zona Banimit" dataDxfId="36"/>
-    <tableColumn id="4" name="Punesimi" dataDxfId="35"/>
-    <tableColumn id="5" name="Nr I personave ne familje" dataDxfId="34"/>
-    <tableColumn id="6" name="nr I personave ne familje te punesuar" dataDxfId="33"/>
-    <tableColumn id="7" name="Masat Parandaluese " dataDxfId="32"/>
-    <tableColumn id="8" name="Situata financiare" dataDxfId="31"/>
-    <tableColumn id="9" name="Punimi gjate karantines" dataDxfId="30"/>
-    <tableColumn id="10" name="Impakti I Covid-19 ne biznes" dataDxfId="29"/>
-    <tableColumn id="11" name="mendimi" dataDxfId="28"/>
-    <tableColumn id="12" name="Burimet e Informacionit" dataDxfId="27"/>
-    <tableColumn id="13" name="Besimi Ne masat e marre nga qeveria" dataDxfId="26"/>
+    <tableColumn id="1" name="Gjinia " dataDxfId="22"/>
+    <tableColumn id="2" name="Mosha" dataDxfId="21"/>
+    <tableColumn id="3" name="Zona Banimit" dataDxfId="20"/>
+    <tableColumn id="4" name="Punesimi" dataDxfId="19"/>
+    <tableColumn id="5" name="Nr I personave ne familje" dataDxfId="18"/>
+    <tableColumn id="6" name="nr I personave ne familje te punesuar" dataDxfId="17"/>
+    <tableColumn id="7" name="Masat Parandaluese " dataDxfId="16"/>
+    <tableColumn id="8" name="Situata financiare" dataDxfId="15"/>
+    <tableColumn id="9" name="Punimi gjate karantines" dataDxfId="14"/>
+    <tableColumn id="10" name="Impakti I Covid-19 ne biznes" dataDxfId="13"/>
+    <tableColumn id="11" name="mendimi" dataDxfId="12"/>
+    <tableColumn id="12" name="Burimet e Informacionit" dataDxfId="11"/>
+    <tableColumn id="13" name="Besimi Ne masat e marre nga qeveria" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,11 +1202,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P137"/>
+  <dimension ref="A1:P142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6731,6 +6842,77 @@
       </c>
       <c r="M137" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138" s="1">
+        <v>136</v>
+      </c>
+      <c r="D138" s="1">
+        <v>136</v>
+      </c>
+      <c r="E138" s="1">
+        <v>136</v>
+      </c>
+      <c r="F138" s="1">
+        <v>136</v>
+      </c>
+      <c r="G138" s="1">
+        <v>136</v>
+      </c>
+      <c r="H138" s="1">
+        <v>136</v>
+      </c>
+      <c r="I138" s="1">
+        <v>136</v>
+      </c>
+      <c r="J138" s="1">
+        <v>136</v>
+      </c>
+      <c r="K138" s="1">
+        <v>136</v>
+      </c>
+      <c r="L138" s="1">
+        <v>136</v>
+      </c>
+      <c r="M138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>COUNTIF(A2:A137,"Mashkull")</f>
+        <v>64</v>
+      </c>
+      <c r="C140" s="9">
+        <f>COUNTIF(C2:C137,"Zonë Urbane")</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <f>A140/A138</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="C141" s="7">
+        <f>C140/C138</f>
+        <v>0.86029411764705888</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <f>1-A141</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="C142" s="8">
+        <f>1-C141</f>
+        <v>0.13970588235294112</v>
       </c>
     </row>
   </sheetData>
@@ -6852,7 +7034,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A2:A137</xm:sqref>
+          <xm:sqref>A2:A138 B138:M138</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="32" operator="containsText" id="{653C11C7-6B0F-409C-BA7C-B52981AD0512}">
